--- a/TestCase_QuanLyRapPhim_Nhom13.xlsx
+++ b/TestCase_QuanLyRapPhim_Nhom13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitdesk\java_IS216.M22_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F54496-1E44-41B2-9892-CF6FF7F1A220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3515205-AB66-48E2-8170-51D6E42419C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E1A7E270-8853-47EB-A4FD-0E7A6E7A0AE9}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="Quản lý hàng hóa" sheetId="2" r:id="rId2"/>
     <sheet name="Quản lý nhân viên" sheetId="3" r:id="rId3"/>
     <sheet name="Quản lý suất chiếu" sheetId="4" r:id="rId4"/>
-    <sheet name="Quản lý phim" sheetId="5" r:id="rId5"/>
+    <sheet name="Xuất file exe" sheetId="6" r:id="rId5"/>
+    <sheet name="Quản lý phim" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="75">
   <si>
     <t>Usecase</t>
   </si>
@@ -252,6 +253,18 @@
   </si>
   <si>
     <t>Các icon không hiển thị được</t>
+  </si>
+  <si>
+    <t>XUẤT FILE EXE</t>
+  </si>
+  <si>
+    <t>25/6/2022</t>
+  </si>
+  <si>
+    <t>Xuất báo cáo</t>
+  </si>
+  <si>
+    <t>Không xuất được báo cáo do lỗi đường dẫn</t>
   </si>
 </sst>
 </file>
@@ -491,50 +504,8 @@
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,44 +534,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1420,6 +1400,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73416</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03582E24-5385-A52F-1B03-7998732A37D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1333499"/>
+          <a:ext cx="10063236" cy="4800601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1783,842 +1812,842 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="17"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="4">
         <v>1</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="4">
         <v>2</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="4">
         <v>3</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="4">
         <v>4</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
+      <c r="A45" s="4">
         <v>5</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
+      <c r="A67" s="14"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
+      <c r="A68" s="14"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
+      <c r="A69" s="14"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
+      <c r="A70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
+      <c r="A71" s="14"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
+      <c r="A72" s="14"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
+      <c r="A73" s="14"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
+      <c r="A75" s="14"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="28"/>
+      <c r="A76" s="14"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
+      <c r="A77" s="14"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
+      <c r="A78" s="14"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
+      <c r="A79" s="14"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
+      <c r="A80" s="14"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="28"/>
+      <c r="A81" s="14"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="28"/>
+      <c r="A82" s="14"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
+      <c r="A83" s="14"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
+      <c r="A84" s="14"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="28"/>
+      <c r="A85" s="14"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28"/>
+      <c r="A86" s="14"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
+      <c r="A87" s="14"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="28"/>
+      <c r="A88" s="14"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="28"/>
+      <c r="A89" s="14"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="28"/>
+      <c r="A90" s="14"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="28"/>
+      <c r="A91" s="14"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
+      <c r="A92" s="14"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="28"/>
+      <c r="A93" s="14"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="28"/>
+      <c r="A94" s="14"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
+      <c r="A95" s="14"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
+      <c r="A96" s="14"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="28"/>
+      <c r="A97" s="14"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="28"/>
+      <c r="A98" s="14"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
+      <c r="A99" s="14"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="28"/>
+      <c r="A100" s="14"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
+      <c r="A101" s="14"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="28"/>
+      <c r="A102" s="14"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="28"/>
+      <c r="A103" s="14"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="28"/>
+      <c r="A104" s="14"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="28"/>
+      <c r="A105" s="14"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="28"/>
+      <c r="A106" s="14"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="28"/>
+      <c r="A107" s="14"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="28"/>
+      <c r="A108" s="14"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="28"/>
+      <c r="A109" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2630,15 +2659,15 @@
     <mergeCell ref="G39:H39"/>
   </mergeCells>
   <conditionalFormatting sqref="C41:C66">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C66">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2675,727 +2704,727 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="L14" s="6" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="L14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="8"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="11"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="11"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="11"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="11"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="11"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="11"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17" t="s">
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="A37" s="4">
         <v>1</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="4">
         <v>2</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="4">
         <v>3</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="4">
         <v>4</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="4">
         <v>5</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
+      <c r="A54" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="L14:Q26"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A7:I32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="C37:C53">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C53">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3428,728 +3457,728 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="17"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="4">
         <v>1</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="4">
         <v>2</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="4">
         <v>3</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="4">
         <v>4</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="4">
         <v>5</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="4">
         <v>6</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4161,28 +4190,28 @@
     <mergeCell ref="G36:H36"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C40 C42:C63">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C40 C42:C63">
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4202,7 +4231,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4218,502 +4247,502 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="17"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="4">
         <v>1</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="4">
         <v>2</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="4">
         <v>3</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="4">
         <v>4</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="4">
         <v>5</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4725,15 +4754,15 @@
     <mergeCell ref="G36:H36"/>
   </mergeCells>
   <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4764,41 +4793,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4813,519 +4842,464 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1299F2A8-C551-42B7-AF33-F8D74DE8C1C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78A6CEE-D0A6-4320-862C-17A8DA263C09}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="17"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="4">
         <v>1</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="B38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>4</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
-        <v>2</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
-        <v>3</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
-        <v>4</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>37</v>
-      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="4">
         <v>5</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>37</v>
-      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5336,12 +5310,12 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
   </mergeCells>
-  <conditionalFormatting sqref="C38:C39">
+  <conditionalFormatting sqref="C39">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C39">
+  <conditionalFormatting sqref="C39">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -5363,15 +5337,601 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:C42">
+  <conditionalFormatting sqref="C38">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38:C42" xr:uid="{2BEB47FE-8D51-490B-9EAE-1C6C364E05B2}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1299F2A8-C551-42B7-AF33-F8D74DE8C1C3}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection sqref="A1:I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C39">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C39">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
